--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
+          <t>Explotación Veta Raúl</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>90</v>
+        <v>1100</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Explotación Veta Raúl</t>
+          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1100</v>
+        <v>90</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">

--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Explotación Veta Raúl</t>
+          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1100</v>
+        <v>90</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
+          <t>Explotación Veta Raúl</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>90</v>
+        <v>1100</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">

--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Construcción Relleno Sanitario de Chile Chico</t>
+          <t>REGULARIZACIÓN PROSPECCIÓN MINERA PROYECTO LOS DOMOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Municipalidad de Chile Chico</t>
+          <t>Southern Gold SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7482</v>
+        <v>3124</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/04/2021</t>
+          <t>30/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151299801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157215645&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/01/2021</t>
+          <t>21/04/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149375527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151299801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11/12/2020</t>
+          <t>25/01/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148014766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149375527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cierre de Vertedero de Chile Chico</t>
+          <t>Construcción Relleno Sanitario de Chile Chico</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,21 +587,21 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1357</v>
+        <v>7482</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/08/2020</t>
+          <t>11/12/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148014766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -635,21 +635,21 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/07/2020</t>
+          <t>20/08/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147432691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL ALMACENAMIENTO DE AGUA DE INTERIOR MINA JAVIERA EN LAGUNA SALITROSA</t>
+          <t>Cierre de Vertedero de Chile Chico</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Municipalidad de Chile Chico</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>1367</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17/02/2017</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132179429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147432691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL ALMACENAMIENTO DE AGUA DE INTERIOR MINA VETA JAVIERA EN LAGUNA SALITROSA</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL ALMACENAMIENTO DE AGUA DE INTERIOR MINA JAVIERA EN LAGUNA SALITROSA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>17/02/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132089341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132179429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI250F1 RPT Lago Tranquilo y Las Horquetas</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL ALMACENAMIENTO DE AGUA DE INTERIOR MINA VETA JAVIERA EN LAGUNA SALITROSA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Telefónica Móviles Chile S.A</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>92</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>25/11/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131943184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132089341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Botadero de Estériles Coyita</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI250F1 RPT Lago Tranquilo y Las Horquetas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Telefónica Móviles Chile S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19/11/2015</t>
+          <t>25/11/2016</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130904708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131943184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Comuna de Chile Chico</t>
+          <t>Declaración de Impacto Ambiental Botadero de Estériles Coyita</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ricardo Enrique Ibarra Valdebenito</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6000</v>
+        <v>250</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/12/2014</t>
+          <t>19/11/2015</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008822&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130904708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Chile Chico</t>
+          <t>Relleno Sanitario Comuna de Chile Chico</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1004</v>
+        <v>6000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008822&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PROYECTO RELLENO SANITARIO COMUNA CHILE CHICO</t>
+          <t>Plan de Cierre Vertedero Chile Chico</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,21 +971,21 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6000</v>
+        <v>1004</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/11/2014</t>
+          <t>22/12/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129903904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proyecto Plan de Cierre Vertedero Chile Chico</t>
+          <t>PROYECTO RELLENO SANITARIO COMUNA CHILE CHICO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1026</v>
+        <v>6000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129904208&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129903904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación Tranque de Relaves Fachinal</t>
+          <t>Proyecto Plan de Cierre Vertedero Chile Chico</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Ricardo Enrique Ibarra Valdebenito</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3250</v>
+        <v>1026</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>21/11/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128901390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129904208&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Central de Pasada Río Avilés</t>
+          <t>Ampliación Tranque de Relaves Fachinal</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Avilés S.A.</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>36000</v>
+        <v>3250</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1124,12 +1124,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128901390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Mini central hidroeléctrica de pasada Río Avilés</t>
+          <t>Central de Pasada Río Avilés</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,21 +1163,21 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>02/08/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128399864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Declaración de Impacto Ambiental Mini central hidroeléctrica de pasada Río Avilés</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Central Hidroeléctrica Avilés S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>02/08/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128399864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2450</v>
+        <v>2475</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Paseo Costanera de Puerto Guadal Costanera Guadal</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile Chico, Región de Aysén.</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6215</v>
+        <v>2450</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6617617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO DELIA SUR</t>
+          <t>Paseo Costanera de Puerto Guadal Costanera Guadal</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Ilustre Municipalidad de Chile Chico, Región de Aysén.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>30000</v>
+        <v>6215</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>03/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6446361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6617617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Rehabilitación y mejoramiento de aeródromo Pampa Seguel</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO DELIA SUR</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PATAGONIA S.A.</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>229</v>
+        <v>30000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>14/10/2011</t>
+          <t>03/01/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6158557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6446361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rehabilitación y Mejoramiento de Aeródromo Pampa Seguel</t>
+          <t>Rehabilitación y mejoramiento de aeródromo Pampa Seguel</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,21 +1643,21 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>14/10/2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6158557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A, Chile Chico</t>
+          <t>Rehabilitación y Mejoramiento de Aeródromo Pampa Seguel</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>PATAGONIA S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>950</v>
+        <v>240</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18/08/2010</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4852591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Complejo Fronterizo de Chile Chico (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A, Chile Chico</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de General Carrera, Región de Aysén.</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2259</v>
+        <v>950</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>18/08/2010</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4137592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4852591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AMPLIACION PROYECTO DAGNY (e-seia)</t>
+          <t>Complejo Fronterizo de Chile Chico (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Gobernación Provincial de General Carrera, Región de Aysén.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>30000</v>
+        <v>2259</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4137592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DIA PERALTAMIENTO DEL MURO TRANQUE RELAVES FACHINAL (e-seia)</t>
+          <t>AMPLIACION PROYECTO DAGNY (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,11 +1835,11 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>730</v>
+        <v>30000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3997888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Peraltamiento del Muro del Tranque de Relaves Fachinal (e-seia)</t>
+          <t>DIA PERALTAMIENTO DEL MURO TRANQUE RELAVES FACHINAL (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,21 +1883,21 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>17/08/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3997888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Chile Chico (e-seia)</t>
+          <t>Peraltamiento del Muro del Tranque de Relaves Fachinal (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>950</v>
+        <v>735</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>17/08/2009</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3525883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Chile Chico". (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Chile Chico (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Miguel Angel Obanos Soto</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15/12/2008</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3418467&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3525883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hostería Turismo Chile Chico (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Chile Chico". (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>EUGENIO ATALA MATHIEU</t>
+          <t>Miguel Angel Obanos Soto</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>180</v>
+        <v>950</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18/07/2008</t>
+          <t>15/12/2008</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3039836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3418467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Proyecto Dagny (e-seia)</t>
+          <t>Hostería Turismo Chile Chico (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>EUGENIO ATALA MATHIEU</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10000</v>
+        <v>180</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17/07/2008</t>
+          <t>18/07/2008</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3039836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Donald Paul Gray</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15/07/2008</t>
+          <t>17/07/2008</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3038650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Proyecto Dagny (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Donald Paul Gray</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>15/07/2008</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3038650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROYECTO VETAS DAGNY (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>28/04/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Proyecto Vetas Dagny Proyecto Vetas Dagny (e-seia)</t>
+          <t>PROYECTO VETAS DAGNY (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Donald Paul Gray</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/02/2008</t>
+          <t>28/04/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2697518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO, ISLA CARVALLO (e-seia)</t>
+          <t>Proyecto Vetas Dagny Proyecto Vetas Dagny (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Salmones Friosur S.A.</t>
+          <t>Donald Paul Gray</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2400</v>
+        <v>10000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05/09/2007</t>
+          <t>08/02/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2364516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2697518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CENTRO DE CULTIVO, ISLA CARVALLO (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Salmones Friosur S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>2400</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/09/2007</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2364516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Construccion costanera urbana de Chile Chico (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile Chico, Región de Aysén.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>11435</v>
+        <v>300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>18/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Construccion costanera urbana de Chile Chico (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Chile Chico, Región de Aysén.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>11435</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>18/01/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Proyecto Cascada (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>55000</v>
+        <v>200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1815996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mejoramiento de PTAS de Chile Chico (e-seia)</t>
+          <t>Proyecto Cascada (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysén S.A.</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>781</v>
+        <v>55000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>16/11/2006</t>
+          <t>20/11/2006</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1814814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1815996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Proyecto Cascada (e-seia)</t>
+          <t>Mejoramiento de PTAS de Chile Chico (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Aguas Patagonia de Aysén S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>11000</v>
+        <v>781</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15/11/2006</t>
+          <t>16/11/2006</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1806906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1814814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PTAS DE CHILE CHICO (e-seia)</t>
+          <t>Proyecto Cascada (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysén S.A.</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>781</v>
+        <v>11000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>15/11/2006</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1806906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>MEJORAMIENTO PTAS DE CHILE CHICO (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Aguas Patagonia de Aysén S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4000</v>
+        <v>781</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Plan Minero 2006-2011 (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>42000</v>
+        <v>4000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1286418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO FACHINAL, EXPLOTACION VETA RAUL SUR (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Plan Minero 2006-2011 (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,21 +2987,21 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>400</v>
+        <v>42000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>06/12/2005</t>
+          <t>09/02/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1286418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL COMPLEJO TURISTICO PATAGONIA ACRES (e-seia)</t>
+          <t>MODIFICACION PROYECTO FACHINAL, EXPLOTACION VETA RAUL SUR (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>James Christopher Harrison</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>06/12/2005</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1006126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>INFORME DE MODIFICACIÓN PROYECTO FACHINAL, PISCINAS DE SEDIMENTACIÓN VETA JAVIERA (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL COMPLEJO TURISTICO PATAGONIA ACRES (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>James Christopher Harrison</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>8</v>
+        <v>450</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11/03/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=625454&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1006126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal General Carrera (e-seia)</t>
+          <t>INFORME DE MODIFICACIÓN PROYECTO FACHINAL, PISCINAS DE SEDIMENTACIÓN VETA JAVIERA (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA XI REGION</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>11/03/2005</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=500708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=625454&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Plan Regulador Intercomunal General Carrera (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SEREMI DE VIVIENDA XI REGION</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=500708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>REGULARIZACION DE LAS OBRAS DE MEJORAMIENTO REALIZADAS (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Miguel Angel Obanos Soto</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>16/03/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=292748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sendero Glaciares de Aysén (e-seia)</t>
+          <t>REGULARIZACION DE LAS OBRAS DE MEJORAMIENTO REALIZADAS (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Ian Farmer Farmer</t>
+          <t>Miguel Angel Obanos Soto</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12/01/2004</t>
+          <t>16/03/2004</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=245776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=292748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ian Michael Farmer Farmer</t>
+          <t>Ian Farmer Farmer</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16/12/2003</t>
+          <t>12/01/2004</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=245776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Fachinal, Explotación Veta Guanaco 2 Sur (e-seia)</t>
+          <t>Sendero Glaciares de Aysén (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Ian Michael Farmer Farmer</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>150</v>
+        <v>644</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>02/12/2003</t>
+          <t>16/12/2003</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=214842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Fachinal, Transprte de Concentrado (e-seia)</t>
+          <t>Modificación Proyecto Fachinal, Explotación Veta Guanaco 2 Sur (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,11 +3419,11 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>28/08/2003</t>
+          <t>02/12/2003</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=214842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Fachinal, Explotación Veta Javiera (e-seia)</t>
+          <t>Modificación Proyecto Fachinal, Transprte de Concentrado (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,11 +3467,11 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14/02/2003</t>
+          <t>28/08/2003</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Fachinal Explotación Veta Raúl.</t>
+          <t>Modificación Proyecto Fachinal, Explotación Veta Javiera (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,11 +3515,11 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09/12/2002</t>
+          <t>14/02/2003</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Plan Regulador Comuna de Chile Chico</t>
+          <t>Modificación Proyecto Fachinal Explotación Veta Raúl.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>15/10/2002</t>
+          <t>09/12/2002</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Modificación Procesamiento Concentrado Final</t>
+          <t>Plan Regulador Comuna de Chile Chico</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>17/12/2001</t>
+          <t>15/10/2002</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estero Thompson Pert. 97110584</t>
+          <t>Modificación Procesamiento Concentrado Final</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08/11/2001</t>
+          <t>17/12/2001</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4802&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Sistema de Agua Potable Rural de la Localidad de Puerto Guadal Comuna de Chile Chico Rehabilitación del Servicio</t>
+          <t>Centro de Engorda de Salmones Estero Thompson Pert. 97110584</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>190</v>
+        <v>1500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>03/10/2001</t>
+          <t>08/11/2001</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4802&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Modificación Plan Minero 2001 Vetas Bayo</t>
+          <t>Sistema de Agua Potable Rural de la Localidad de Puerto Guadal Comuna de Chile Chico Rehabilitación del Servicio</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>09/04/2001</t>
+          <t>03/10/2001</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Acopio Temporal de Mineral Proyecto Furioso</t>
+          <t>Modificación Plan Minero 2001 Vetas Bayo</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3803,11 +3803,11 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>13/02/2001</t>
+          <t>09/04/2001</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Habilitación Camping Bahía Jara</t>
+          <t>Acopio Temporal de Mineral Proyecto Furioso</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>19/01/2001</t>
+          <t>13/02/2001</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Modificación del Medio de Transporte de Mineral Proyecto Furioso</t>
+          <t>Habilitación Camping Bahía Jara</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>30/08/2000</t>
+          <t>19/01/2001</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Instalación Planta de Tratamiento Aguas Servidas Hostería Terra Luna</t>
+          <t>Modificación del Medio de Transporte de Mineral Proyecto Furioso</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Philippe Reuter Reuter</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>22/08/2000</t>
+          <t>30/08/2000</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Construcción de Centro de Alojamiento Turístico Hotel Resort Hacienda Tres Lagos</t>
+          <t>Instalación Planta de Tratamiento Aguas Servidas Hostería Terra Luna</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sociedad Hostería Hacienda Tres Lagos</t>
+          <t>Philippe Reuter Reuter</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>13/12/1999</t>
+          <t>22/08/2000</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Estación de Gasolina Estrella Sur</t>
+          <t>Construcción de Centro de Alojamiento Turístico Hotel Resort Hacienda Tres Lagos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sociedad Estrella Sur Limitada</t>
+          <t>Sociedad Hostería Hacienda Tres Lagos</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>25/10/1999</t>
+          <t>13/12/1999</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Modificación Plan Minero 1999</t>
+          <t>Estación de Gasolina Estrella Sur</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Sociedad Estrella Sur Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18/10/1999</t>
+          <t>25/10/1999</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sistema de Agua Potable Rural de la Localidad de Las Chacras comuna de Chile Chico</t>
+          <t>Modificación Plan Minero 1999</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>09/07/1999</t>
+          <t>18/10/1999</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Alcantarillado de Puerto Guadal Comuna de Chile Chico</t>
+          <t>Sistema de Agua Potable Rural de la Localidad de Las Chacras comuna de Chile Chico</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>960</v>
+        <v>130</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>30/12/1998</t>
+          <t>09/07/1999</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Modificación Plan de Explotación de Minerales Proyecto Fachinal</t>
+          <t>Instalación Sistema de Alcantarillado de Puerto Guadal Comuna de Chile Chico</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>16/10/1998</t>
+          <t>30/12/1998</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
+          <t>Modificación Plan de Explotación de Minerales Proyecto Fachinal</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>20/08/1998</t>
+          <t>16/10/1998</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Explotación Veta Raúl</t>
+          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1100</v>
+        <v>90</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,43 +4360,91 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>Explotación Veta Raúl</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Undécima</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>20/08/1998</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Chile Chico</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>Proyecto Minero FACHINAL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Undécima</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Undécima</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>CDE Chilean Mining Corporation</t>
         </is>
       </c>
-      <c r="F84" t="n">
+      <c r="F85" t="n">
         <v>4000</v>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>01/05/1994</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=139&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>Chile Chico</t>
         </is>

--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
+          <t>Explotación Veta Raúl</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>90</v>
+        <v>1100</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Explotación Veta Raúl</t>
+          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1100</v>
+        <v>90</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">

--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Explotación Veta Raúl</t>
+          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1100</v>
+        <v>90</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
+          <t>Explotación Veta Raúl</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>90</v>
+        <v>1100</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">

--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/09/2022</t>
+          <t>07/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -3703,7 +3703,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
+          <t>Explotación Veta Raúl</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>90</v>
+        <v>1100</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Explotación Veta Raúl</t>
+          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1100</v>
+        <v>90</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">

--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PROSPECCIÓN MINERA PROYECTO LOS DOMOS</t>
+          <t>Minicentral Hidroeléctrica de pasada Los Maquis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Southern Gold SpA</t>
+          <t>Empresa Eléctrica de Aisén S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3124</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/10/2022</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157215645&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159461351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Construcción Relleno Sanitario de Chile Chico</t>
+          <t>REGULARIZACIÓN PROSPECCIÓN MINERA PROYECTO LOS DOMOS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Municipalidad de Chile Chico</t>
+          <t>Southern Gold SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7482</v>
+        <v>3124</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/04/2021</t>
+          <t>07/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151299801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157215645&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25/01/2021</t>
+          <t>21/04/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149375527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151299801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11/12/2020</t>
+          <t>25/01/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148014766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149375527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cierre de Vertedero de Chile Chico</t>
+          <t>Construcción Relleno Sanitario de Chile Chico</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -635,21 +635,21 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1357</v>
+        <v>7482</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/08/2020</t>
+          <t>11/12/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148014766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -683,21 +683,21 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/07/2020</t>
+          <t>20/08/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147432691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL ALMACENAMIENTO DE AGUA DE INTERIOR MINA JAVIERA EN LAGUNA SALITROSA</t>
+          <t>Cierre de Vertedero de Chile Chico</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Municipalidad de Chile Chico</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>1367</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17/02/2017</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132179429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147432691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL ALMACENAMIENTO DE AGUA DE INTERIOR MINA VETA JAVIERA EN LAGUNA SALITROSA</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL ALMACENAMIENTO DE AGUA DE INTERIOR MINA JAVIERA EN LAGUNA SALITROSA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>17/02/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132089341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132179429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI250F1 RPT Lago Tranquilo y Las Horquetas</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL ALMACENAMIENTO DE AGUA DE INTERIOR MINA VETA JAVIERA EN LAGUNA SALITROSA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Telefónica Móviles Chile S.A</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>92</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>25/11/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131943184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132089341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Botadero de Estériles Coyita</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI250F1 RPT Lago Tranquilo y Las Horquetas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Telefónica Móviles Chile S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/11/2015</t>
+          <t>25/11/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130904708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131943184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Comuna de Chile Chico</t>
+          <t>Declaración de Impacto Ambiental Botadero de Estériles Coyita</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ricardo Enrique Ibarra Valdebenito</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6000</v>
+        <v>250</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/12/2014</t>
+          <t>19/11/2015</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008822&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130904708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Chile Chico</t>
+          <t>Relleno Sanitario Comuna de Chile Chico</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1004</v>
+        <v>6000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008822&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PROYECTO RELLENO SANITARIO COMUNA CHILE CHICO</t>
+          <t>Plan de Cierre Vertedero Chile Chico</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,21 +1019,21 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6000</v>
+        <v>1004</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/11/2014</t>
+          <t>22/12/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129903904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Proyecto Plan de Cierre Vertedero Chile Chico</t>
+          <t>PROYECTO RELLENO SANITARIO COMUNA CHILE CHICO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1026</v>
+        <v>6000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129904208&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129903904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación Tranque de Relaves Fachinal</t>
+          <t>Proyecto Plan de Cierre Vertedero Chile Chico</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Ricardo Enrique Ibarra Valdebenito</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3250</v>
+        <v>1026</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>21/11/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128901390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129904208&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Central de Pasada Río Avilés</t>
+          <t>Ampliación Tranque de Relaves Fachinal</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,11 +1159,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Avilés S.A.</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>36000</v>
+        <v>3250</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128901390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Mini central hidroeléctrica de pasada Río Avilés</t>
+          <t>Central de Pasada Río Avilés</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1211,21 +1211,21 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>02/08/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128399864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Declaración de Impacto Ambiental Mini central hidroeléctrica de pasada Río Avilés</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Central Hidroeléctrica Avilés S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>02/08/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128399864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2450</v>
+        <v>2475</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Paseo Costanera de Puerto Guadal Costanera Guadal</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile Chico, Región de Aysén.</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6215</v>
+        <v>2450</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6617617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO DELIA SUR</t>
+          <t>Paseo Costanera de Puerto Guadal Costanera Guadal</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Ilustre Municipalidad de Chile Chico, Región de Aysén.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>30000</v>
+        <v>6215</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>03/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6446361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6617617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rehabilitación y mejoramiento de aeródromo Pampa Seguel</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO DELIA SUR</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PATAGONIA S.A.</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>229</v>
+        <v>30000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>14/10/2011</t>
+          <t>03/01/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6158557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6446361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Rehabilitación y Mejoramiento de Aeródromo Pampa Seguel</t>
+          <t>Rehabilitación y mejoramiento de aeródromo Pampa Seguel</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1691,21 +1691,21 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>14/10/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6158557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A, Chile Chico</t>
+          <t>Rehabilitación y Mejoramiento de Aeródromo Pampa Seguel</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>PATAGONIA S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>950</v>
+        <v>240</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18/08/2010</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4852591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Complejo Fronterizo de Chile Chico (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A, Chile Chico</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de General Carrera, Región de Aysén.</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2259</v>
+        <v>950</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>18/08/2010</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4137592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4852591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AMPLIACION PROYECTO DAGNY (e-seia)</t>
+          <t>Complejo Fronterizo de Chile Chico (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Gobernación Provincial de General Carrera, Región de Aysén.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>30000</v>
+        <v>2259</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4137592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DIA PERALTAMIENTO DEL MURO TRANQUE RELAVES FACHINAL (e-seia)</t>
+          <t>AMPLIACION PROYECTO DAGNY (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,11 +1883,11 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>730</v>
+        <v>30000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3997888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Peraltamiento del Muro del Tranque de Relaves Fachinal (e-seia)</t>
+          <t>DIA PERALTAMIENTO DEL MURO TRANQUE RELAVES FACHINAL (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,21 +1931,21 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>17/08/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3997888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Chile Chico (e-seia)</t>
+          <t>Peraltamiento del Muro del Tranque de Relaves Fachinal (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>950</v>
+        <v>735</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>17/08/2009</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3525883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Chile Chico". (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Chile Chico (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Miguel Angel Obanos Soto</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15/12/2008</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3418467&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3525883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hostería Turismo Chile Chico (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Chile Chico". (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>EUGENIO ATALA MATHIEU</t>
+          <t>Miguel Angel Obanos Soto</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>180</v>
+        <v>950</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18/07/2008</t>
+          <t>15/12/2008</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3039836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3418467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Proyecto Dagny (e-seia)</t>
+          <t>Hostería Turismo Chile Chico (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>EUGENIO ATALA MATHIEU</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10000</v>
+        <v>180</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17/07/2008</t>
+          <t>18/07/2008</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3039836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Donald Paul Gray</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15/07/2008</t>
+          <t>17/07/2008</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3038650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Proyecto Dagny (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Donald Paul Gray</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>15/07/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3038650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PROYECTO VETAS DAGNY (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>28/04/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Proyecto Vetas Dagny Proyecto Vetas Dagny (e-seia)</t>
+          <t>PROYECTO VETAS DAGNY (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Donald Paul Gray</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/02/2008</t>
+          <t>28/04/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2697518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO, ISLA CARVALLO (e-seia)</t>
+          <t>Proyecto Vetas Dagny Proyecto Vetas Dagny (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Salmones Friosur S.A.</t>
+          <t>Donald Paul Gray</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2400</v>
+        <v>10000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05/09/2007</t>
+          <t>08/02/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2364516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2697518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CENTRO DE CULTIVO, ISLA CARVALLO (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Salmones Friosur S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>2400</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/09/2007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2364516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Construccion costanera urbana de Chile Chico (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile Chico, Región de Aysén.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>11435</v>
+        <v>300</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>18/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Construccion costanera urbana de Chile Chico (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Chile Chico, Región de Aysén.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>11435</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>18/01/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Proyecto Cascada (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>55000</v>
+        <v>200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1815996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mejoramiento de PTAS de Chile Chico (e-seia)</t>
+          <t>Proyecto Cascada (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysén S.A.</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>781</v>
+        <v>55000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>16/11/2006</t>
+          <t>20/11/2006</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1814814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1815996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Proyecto Cascada (e-seia)</t>
+          <t>Mejoramiento de PTAS de Chile Chico (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Aguas Patagonia de Aysén S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>11000</v>
+        <v>781</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15/11/2006</t>
+          <t>16/11/2006</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1806906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1814814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PTAS DE CHILE CHICO (e-seia)</t>
+          <t>Proyecto Cascada (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysén S.A.</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>781</v>
+        <v>11000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>15/11/2006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1806906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>MEJORAMIENTO PTAS DE CHILE CHICO (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Aguas Patagonia de Aysén S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4000</v>
+        <v>781</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Plan Minero 2006-2011 (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>42000</v>
+        <v>4000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1286418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO FACHINAL, EXPLOTACION VETA RAUL SUR (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Plan Minero 2006-2011 (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,21 +3035,21 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>400</v>
+        <v>42000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>06/12/2005</t>
+          <t>09/02/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1286418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL COMPLEJO TURISTICO PATAGONIA ACRES (e-seia)</t>
+          <t>MODIFICACION PROYECTO FACHINAL, EXPLOTACION VETA RAUL SUR (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>James Christopher Harrison</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>06/12/2005</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1006126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>INFORME DE MODIFICACIÓN PROYECTO FACHINAL, PISCINAS DE SEDIMENTACIÓN VETA JAVIERA (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL COMPLEJO TURISTICO PATAGONIA ACRES (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>James Christopher Harrison</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>450</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>11/03/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=625454&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1006126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal General Carrera (e-seia)</t>
+          <t>INFORME DE MODIFICACIÓN PROYECTO FACHINAL, PISCINAS DE SEDIMENTACIÓN VETA JAVIERA (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA XI REGION</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>11/03/2005</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=500708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=625454&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Plan Regulador Intercomunal General Carrera (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SEREMI DE VIVIENDA XI REGION</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=500708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>REGULARIZACION DE LAS OBRAS DE MEJORAMIENTO REALIZADAS (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Miguel Angel Obanos Soto</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>16/03/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=292748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sendero Glaciares de Aysén (e-seia)</t>
+          <t>REGULARIZACION DE LAS OBRAS DE MEJORAMIENTO REALIZADAS (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ian Farmer Farmer</t>
+          <t>Miguel Angel Obanos Soto</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12/01/2004</t>
+          <t>16/03/2004</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=245776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=292748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ian Michael Farmer Farmer</t>
+          <t>Ian Farmer Farmer</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>16/12/2003</t>
+          <t>12/01/2004</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=245776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Fachinal, Explotación Veta Guanaco 2 Sur (e-seia)</t>
+          <t>Sendero Glaciares de Aysén (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Ian Michael Farmer Farmer</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>150</v>
+        <v>644</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>02/12/2003</t>
+          <t>16/12/2003</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=214842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Fachinal, Transprte de Concentrado (e-seia)</t>
+          <t>Modificación Proyecto Fachinal, Explotación Veta Guanaco 2 Sur (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,11 +3467,11 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>28/08/2003</t>
+          <t>02/12/2003</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=214842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Fachinal, Explotación Veta Javiera (e-seia)</t>
+          <t>Modificación Proyecto Fachinal, Transprte de Concentrado (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,11 +3515,11 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>14/02/2003</t>
+          <t>28/08/2003</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Fachinal Explotación Veta Raúl.</t>
+          <t>Modificación Proyecto Fachinal, Explotación Veta Javiera (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,11 +3563,11 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09/12/2002</t>
+          <t>14/02/2003</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Plan Regulador Comuna de Chile Chico</t>
+          <t>Modificación Proyecto Fachinal Explotación Veta Raúl.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>15/10/2002</t>
+          <t>09/12/2002</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación Procesamiento Concentrado Final</t>
+          <t>Plan Regulador Comuna de Chile Chico</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>17/12/2001</t>
+          <t>15/10/2002</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estero Thompson Pert. 97110584</t>
+          <t>Modificación Procesamiento Concentrado Final</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08/11/2001</t>
+          <t>17/12/2001</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4802&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sistema de Agua Potable Rural de la Localidad de Puerto Guadal Comuna de Chile Chico Rehabilitación del Servicio</t>
+          <t>Centro de Engorda de Salmones Estero Thompson Pert. 97110584</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>190</v>
+        <v>1500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>03/10/2001</t>
+          <t>08/11/2001</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4802&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Modificación Plan Minero 2001 Vetas Bayo</t>
+          <t>Sistema de Agua Potable Rural de la Localidad de Puerto Guadal Comuna de Chile Chico Rehabilitación del Servicio</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>09/04/2001</t>
+          <t>03/10/2001</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Acopio Temporal de Mineral Proyecto Furioso</t>
+          <t>Modificación Plan Minero 2001 Vetas Bayo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,11 +3851,11 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>13/02/2001</t>
+          <t>09/04/2001</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Habilitación Camping Bahía Jara</t>
+          <t>Acopio Temporal de Mineral Proyecto Furioso</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>19/01/2001</t>
+          <t>13/02/2001</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Modificación del Medio de Transporte de Mineral Proyecto Furioso</t>
+          <t>Habilitación Camping Bahía Jara</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>30/08/2000</t>
+          <t>19/01/2001</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Instalación Planta de Tratamiento Aguas Servidas Hostería Terra Luna</t>
+          <t>Modificación del Medio de Transporte de Mineral Proyecto Furioso</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Philippe Reuter Reuter</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>22/08/2000</t>
+          <t>30/08/2000</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Construcción de Centro de Alojamiento Turístico Hotel Resort Hacienda Tres Lagos</t>
+          <t>Instalación Planta de Tratamiento Aguas Servidas Hostería Terra Luna</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sociedad Hostería Hacienda Tres Lagos</t>
+          <t>Philippe Reuter Reuter</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>13/12/1999</t>
+          <t>22/08/2000</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Estación de Gasolina Estrella Sur</t>
+          <t>Construcción de Centro de Alojamiento Turístico Hotel Resort Hacienda Tres Lagos</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sociedad Estrella Sur Limitada</t>
+          <t>Sociedad Hostería Hacienda Tres Lagos</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>25/10/1999</t>
+          <t>13/12/1999</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Modificación Plan Minero 1999</t>
+          <t>Estación de Gasolina Estrella Sur</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Sociedad Estrella Sur Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>18/10/1999</t>
+          <t>25/10/1999</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sistema de Agua Potable Rural de la Localidad de Las Chacras comuna de Chile Chico</t>
+          <t>Modificación Plan Minero 1999</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>09/07/1999</t>
+          <t>18/10/1999</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Alcantarillado de Puerto Guadal Comuna de Chile Chico</t>
+          <t>Sistema de Agua Potable Rural de la Localidad de Las Chacras comuna de Chile Chico</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>960</v>
+        <v>130</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>30/12/1998</t>
+          <t>09/07/1999</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Modificación Plan de Explotación de Minerales Proyecto Fachinal</t>
+          <t>Instalación Sistema de Alcantarillado de Puerto Guadal Comuna de Chile Chico</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>16/10/1998</t>
+          <t>30/12/1998</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
+          <t>Modificación Plan de Explotación de Minerales Proyecto Fachinal</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>20/08/1998</t>
+          <t>16/10/1998</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4408,43 +4408,91 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Undécima</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Ilustre Municipalidad de Chile chico</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>90</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>20/08/1998</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Chile Chico</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
           <t>Proyecto Minero FACHINAL</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Undécima</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Undécima</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>CDE Chilean Mining Corporation</t>
         </is>
       </c>
-      <c r="F85" t="n">
+      <c r="F86" t="n">
         <v>4000</v>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>01/05/1994</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=139&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>Chile Chico</t>
         </is>

--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Explotación Veta Raúl</t>
+          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1100</v>
+        <v>90</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
+          <t>Explotación Veta Raúl</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>90</v>
+        <v>1100</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">

--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
+          <t>Explotación Veta Raúl</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>90</v>
+        <v>1100</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Explotación Veta Raúl</t>
+          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1100</v>
+        <v>90</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">

--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>22/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica de pasada Los Maquis</t>
+          <t>DRENAJE, PREDIO LA PUNTILLA, COMUNA DE CHILE CHICO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Aisén S.A.</t>
+          <t>Patagonia Ridge SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12000</v>
+        <v>2200</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/06/2023</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159461351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159853467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PROSPECCIÓN MINERA PROYECTO LOS DOMOS</t>
+          <t>Minicentral Hidroeléctrica de pasada Los Maquis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Southern Gold SpA</t>
+          <t>Empresa Eléctrica de Aisén S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3124</v>
+        <v>12000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>07/10/2022</t>
+          <t>22/06/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157215645&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159461351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Construcción Relleno Sanitario de Chile Chico</t>
+          <t>REGULARIZACIÓN PROSPECCIÓN MINERA PROYECTO LOS DOMOS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Municipalidad de Chile Chico</t>
+          <t>Southern Gold SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7482</v>
+        <v>3124</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/04/2021</t>
+          <t>07/10/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151299801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157215645&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>25/01/2021</t>
+          <t>21/04/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149375527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151299801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11/12/2020</t>
+          <t>25/01/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148014766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149375527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cierre de Vertedero de Chile Chico</t>
+          <t>Construcción Relleno Sanitario de Chile Chico</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -683,21 +683,21 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1357</v>
+        <v>7482</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/08/2020</t>
+          <t>11/12/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148014766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -731,21 +731,21 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/07/2020</t>
+          <t>20/08/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147432691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL ALMACENAMIENTO DE AGUA DE INTERIOR MINA JAVIERA EN LAGUNA SALITROSA</t>
+          <t>Cierre de Vertedero de Chile Chico</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Municipalidad de Chile Chico</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>1367</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>17/02/2017</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132179429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147432691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL ALMACENAMIENTO DE AGUA DE INTERIOR MINA VETA JAVIERA EN LAGUNA SALITROSA</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL ALMACENAMIENTO DE AGUA DE INTERIOR MINA JAVIERA EN LAGUNA SALITROSA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>17/02/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132089341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132179429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI250F1 RPT Lago Tranquilo y Las Horquetas</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL ALMACENAMIENTO DE AGUA DE INTERIOR MINA VETA JAVIERA EN LAGUNA SALITROSA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Telefónica Móviles Chile S.A</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>92</v>
+        <v>1000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>25/11/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131943184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132089341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Botadero de Estériles Coyita</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI250F1 RPT Lago Tranquilo y Las Horquetas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Telefónica Móviles Chile S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/11/2015</t>
+          <t>25/11/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130904708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131943184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Comuna de Chile Chico</t>
+          <t>Declaración de Impacto Ambiental Botadero de Estériles Coyita</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ricardo Enrique Ibarra Valdebenito</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6000</v>
+        <v>250</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/12/2014</t>
+          <t>19/11/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008822&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130904708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Chile Chico</t>
+          <t>Relleno Sanitario Comuna de Chile Chico</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1004</v>
+        <v>6000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008822&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROYECTO RELLENO SANITARIO COMUNA CHILE CHICO</t>
+          <t>Plan de Cierre Vertedero Chile Chico</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,21 +1067,21 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6000</v>
+        <v>1004</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/11/2014</t>
+          <t>22/12/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129903904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Proyecto Plan de Cierre Vertedero Chile Chico</t>
+          <t>PROYECTO RELLENO SANITARIO COMUNA CHILE CHICO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1026</v>
+        <v>6000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129904208&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129903904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación Tranque de Relaves Fachinal</t>
+          <t>Proyecto Plan de Cierre Vertedero Chile Chico</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Ricardo Enrique Ibarra Valdebenito</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3250</v>
+        <v>1026</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>21/11/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128901390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129904208&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Central de Pasada Río Avilés</t>
+          <t>Ampliación Tranque de Relaves Fachinal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,11 +1207,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Avilés S.A.</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>36000</v>
+        <v>3250</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1220,12 +1220,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128901390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Mini central hidroeléctrica de pasada Río Avilés</t>
+          <t>Central de Pasada Río Avilés</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1259,21 +1259,21 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>02/08/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128399864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Declaración de Impacto Ambiental Mini central hidroeléctrica de pasada Río Avilés</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Central Hidroeléctrica Avilés S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>02/08/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128399864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2450</v>
+        <v>2475</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Paseo Costanera de Puerto Guadal Costanera Guadal</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile Chico, Región de Aysén.</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6215</v>
+        <v>2450</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6617617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO DELIA SUR</t>
+          <t>Paseo Costanera de Puerto Guadal Costanera Guadal</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Ilustre Municipalidad de Chile Chico, Región de Aysén.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>30000</v>
+        <v>6215</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>03/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6446361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6617617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Rehabilitación y mejoramiento de aeródromo Pampa Seguel</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO DELIA SUR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PATAGONIA S.A.</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>229</v>
+        <v>30000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>14/10/2011</t>
+          <t>03/01/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6158557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6446361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Rehabilitación y Mejoramiento de Aeródromo Pampa Seguel</t>
+          <t>Rehabilitación y mejoramiento de aeródromo Pampa Seguel</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1739,21 +1739,21 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>14/10/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6158557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A, Chile Chico</t>
+          <t>Rehabilitación y Mejoramiento de Aeródromo Pampa Seguel</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>PATAGONIA S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>950</v>
+        <v>240</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18/08/2010</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4852591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Complejo Fronterizo de Chile Chico (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A, Chile Chico</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de General Carrera, Región de Aysén.</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2259</v>
+        <v>950</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>18/08/2010</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4137592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4852591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AMPLIACION PROYECTO DAGNY (e-seia)</t>
+          <t>Complejo Fronterizo de Chile Chico (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Gobernación Provincial de General Carrera, Región de Aysén.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>30000</v>
+        <v>2259</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4137592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DIA PERALTAMIENTO DEL MURO TRANQUE RELAVES FACHINAL (e-seia)</t>
+          <t>AMPLIACION PROYECTO DAGNY (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,11 +1931,11 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>730</v>
+        <v>30000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3997888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Peraltamiento del Muro del Tranque de Relaves Fachinal (e-seia)</t>
+          <t>DIA PERALTAMIENTO DEL MURO TRANQUE RELAVES FACHINAL (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,21 +1979,21 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>17/08/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3997888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Chile Chico (e-seia)</t>
+          <t>Peraltamiento del Muro del Tranque de Relaves Fachinal (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysen S.A.</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>950</v>
+        <v>735</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>17/08/2009</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3525883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Chile Chico". (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Chile Chico (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Miguel Angel Obanos Soto</t>
+          <t>Aguas Patagonia de Aysen S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15/12/2008</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3418467&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3525883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hostería Turismo Chile Chico (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Planta de Tratamiento de Aguas Servidas, Aguas Patagonia S.A., Chile Chico". (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>EUGENIO ATALA MATHIEU</t>
+          <t>Miguel Angel Obanos Soto</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>180</v>
+        <v>950</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18/07/2008</t>
+          <t>15/12/2008</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3039836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3418467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Proyecto Dagny (e-seia)</t>
+          <t>Hostería Turismo Chile Chico (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>EUGENIO ATALA MATHIEU</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10000</v>
+        <v>180</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17/07/2008</t>
+          <t>18/07/2008</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3039836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Donald Paul Gray</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15/07/2008</t>
+          <t>17/07/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3038650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Proyecto Dagny (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Donald Paul Gray</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>15/07/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3038650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PROYECTO VETAS DAGNY (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>28/04/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Proyecto Vetas Dagny Proyecto Vetas Dagny (e-seia)</t>
+          <t>PROYECTO VETAS DAGNY (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Donald Paul Gray</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/02/2008</t>
+          <t>28/04/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2697518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO, ISLA CARVALLO (e-seia)</t>
+          <t>Proyecto Vetas Dagny Proyecto Vetas Dagny (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Salmones Friosur S.A.</t>
+          <t>Donald Paul Gray</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2400</v>
+        <v>10000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05/09/2007</t>
+          <t>08/02/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2364516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2697518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CENTRO DE CULTIVO, ISLA CARVALLO (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Salmones Friosur S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>2400</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/09/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2364516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Construccion costanera urbana de Chile Chico (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile Chico, Región de Aysén.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>11435</v>
+        <v>300</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>18/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Construccion costanera urbana de Chile Chico (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Chile Chico, Región de Aysén.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>200</v>
+        <v>11435</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>18/01/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Proyecto Cascada (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>55000</v>
+        <v>200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1815996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mejoramiento de PTAS de Chile Chico (e-seia)</t>
+          <t>Proyecto Cascada (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysén S.A.</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>781</v>
+        <v>55000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16/11/2006</t>
+          <t>20/11/2006</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1814814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1815996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Proyecto Cascada (e-seia)</t>
+          <t>Mejoramiento de PTAS de Chile Chico (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Aguas Patagonia de Aysén S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>11000</v>
+        <v>781</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15/11/2006</t>
+          <t>16/11/2006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1806906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1814814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PTAS DE CHILE CHICO (e-seia)</t>
+          <t>Proyecto Cascada (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Aguas Patagonia de Aysén S.A.</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>781</v>
+        <v>11000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>15/11/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1806906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>MEJORAMIENTO PTAS DE CHILE CHICO (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Aguas Patagonia de Aysén S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4000</v>
+        <v>781</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Plan Minero 2006-2011 (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>42000</v>
+        <v>4000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1286418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO FACHINAL, EXPLOTACION VETA RAUL SUR (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Plan Minero 2006-2011 (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,21 +3083,21 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>400</v>
+        <v>42000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06/12/2005</t>
+          <t>09/02/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1286418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL COMPLEJO TURISTICO PATAGONIA ACRES (e-seia)</t>
+          <t>MODIFICACION PROYECTO FACHINAL, EXPLOTACION VETA RAUL SUR (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>James Christopher Harrison</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>06/12/2005</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1006126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>INFORME DE MODIFICACIÓN PROYECTO FACHINAL, PISCINAS DE SEDIMENTACIÓN VETA JAVIERA (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL COMPLEJO TURISTICO PATAGONIA ACRES (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>James Christopher Harrison</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>8</v>
+        <v>450</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>11/03/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=625454&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1006126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal General Carrera (e-seia)</t>
+          <t>INFORME DE MODIFICACIÓN PROYECTO FACHINAL, PISCINAS DE SEDIMENTACIÓN VETA JAVIERA (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA XI REGION</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>11/03/2005</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=500708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=625454&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Plan Regulador Intercomunal General Carrera (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SEREMI DE VIVIENDA XI REGION</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=500708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>REGULARIZACION DE LAS OBRAS DE MEJORAMIENTO REALIZADAS (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Miguel Angel Obanos Soto</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16/03/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=292748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sendero Glaciares de Aysén (e-seia)</t>
+          <t>REGULARIZACION DE LAS OBRAS DE MEJORAMIENTO REALIZADAS (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ian Farmer Farmer</t>
+          <t>Miguel Angel Obanos Soto</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12/01/2004</t>
+          <t>16/03/2004</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=245776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=292748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ian Michael Farmer Farmer</t>
+          <t>Ian Farmer Farmer</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>16/12/2003</t>
+          <t>12/01/2004</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=245776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Fachinal, Explotación Veta Guanaco 2 Sur (e-seia)</t>
+          <t>Sendero Glaciares de Aysén (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Bayo Limitada</t>
+          <t>Ian Michael Farmer Farmer</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>150</v>
+        <v>644</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>02/12/2003</t>
+          <t>16/12/2003</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=214842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Fachinal, Transprte de Concentrado (e-seia)</t>
+          <t>Modificación Proyecto Fachinal, Explotación Veta Guanaco 2 Sur (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,11 +3515,11 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>28/08/2003</t>
+          <t>02/12/2003</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=214842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Fachinal, Explotación Veta Javiera (e-seia)</t>
+          <t>Modificación Proyecto Fachinal, Transprte de Concentrado (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,11 +3563,11 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>14/02/2003</t>
+          <t>28/08/2003</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Fachinal Explotación Veta Raúl.</t>
+          <t>Modificación Proyecto Fachinal, Explotación Veta Javiera (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3611,11 +3611,11 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>09/12/2002</t>
+          <t>14/02/2003</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Plan Regulador Comuna de Chile Chico</t>
+          <t>Modificación Proyecto Fachinal Explotación Veta Raúl.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera Cerro Bayo Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>15/10/2002</t>
+          <t>09/12/2002</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación Procesamiento Concentrado Final</t>
+          <t>Plan Regulador Comuna de Chile Chico</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>17/12/2001</t>
+          <t>15/10/2002</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estero Thompson Pert. 97110584</t>
+          <t>Modificación Procesamiento Concentrado Final</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08/11/2001</t>
+          <t>17/12/2001</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4802&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sistema de Agua Potable Rural de la Localidad de Puerto Guadal Comuna de Chile Chico Rehabilitación del Servicio</t>
+          <t>Centro de Engorda de Salmones Estero Thompson Pert. 97110584</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>190</v>
+        <v>1500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>03/10/2001</t>
+          <t>08/11/2001</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4802&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Modificación Plan Minero 2001 Vetas Bayo</t>
+          <t>Sistema de Agua Potable Rural de la Localidad de Puerto Guadal Comuna de Chile Chico Rehabilitación del Servicio</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>09/04/2001</t>
+          <t>03/10/2001</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Acopio Temporal de Mineral Proyecto Furioso</t>
+          <t>Modificación Plan Minero 2001 Vetas Bayo</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,11 +3899,11 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>13/02/2001</t>
+          <t>09/04/2001</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Habilitación Camping Bahía Jara</t>
+          <t>Acopio Temporal de Mineral Proyecto Furioso</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>19/01/2001</t>
+          <t>13/02/2001</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Modificación del Medio de Transporte de Mineral Proyecto Furioso</t>
+          <t>Habilitación Camping Bahía Jara</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>30/08/2000</t>
+          <t>19/01/2001</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Instalación Planta de Tratamiento Aguas Servidas Hostería Terra Luna</t>
+          <t>Modificación del Medio de Transporte de Mineral Proyecto Furioso</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Philippe Reuter Reuter</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>22/08/2000</t>
+          <t>30/08/2000</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Construcción de Centro de Alojamiento Turístico Hotel Resort Hacienda Tres Lagos</t>
+          <t>Instalación Planta de Tratamiento Aguas Servidas Hostería Terra Luna</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sociedad Hostería Hacienda Tres Lagos</t>
+          <t>Philippe Reuter Reuter</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>13/12/1999</t>
+          <t>22/08/2000</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Estación de Gasolina Estrella Sur</t>
+          <t>Construcción de Centro de Alojamiento Turístico Hotel Resort Hacienda Tres Lagos</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sociedad Estrella Sur Limitada</t>
+          <t>Sociedad Hostería Hacienda Tres Lagos</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>25/10/1999</t>
+          <t>13/12/1999</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Modificación Plan Minero 1999</t>
+          <t>Estación de Gasolina Estrella Sur</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Sociedad Estrella Sur Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>18/10/1999</t>
+          <t>25/10/1999</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sistema de Agua Potable Rural de la Localidad de Las Chacras comuna de Chile Chico</t>
+          <t>Modificación Plan Minero 1999</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09/07/1999</t>
+          <t>18/10/1999</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Alcantarillado de Puerto Guadal Comuna de Chile Chico</t>
+          <t>Sistema de Agua Potable Rural de la Localidad de Las Chacras comuna de Chile Chico</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>960</v>
+        <v>130</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30/12/1998</t>
+          <t>09/07/1999</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Modificación Plan de Explotación de Minerales Proyecto Fachinal</t>
+          <t>Instalación Sistema de Alcantarillado de Puerto Guadal Comuna de Chile Chico</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>16/10/1998</t>
+          <t>30/12/1998</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
+          <t>Modificación Plan de Explotación de Minerales Proyecto Fachinal</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>20/08/1998</t>
+          <t>16/10/1998</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4456,43 +4456,91 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Undécima</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Ilustre Municipalidad de Chile chico</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>90</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>20/08/1998</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Chile Chico</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
           <t>Proyecto Minero FACHINAL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Undécima</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Undécima</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>CDE Chilean Mining Corporation</t>
         </is>
       </c>
-      <c r="F86" t="n">
+      <c r="F87" t="n">
         <v>4000</v>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>01/05/1994</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=139&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>Chile Chico</t>
         </is>

--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Explotación Veta Raúl</t>
+          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1100</v>
+        <v>90</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
+          <t>Explotación Veta Raúl</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>90</v>
+        <v>1100</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">

--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
+          <t>Explotación Veta Raúl</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>90</v>
+        <v>1100</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Explotación Veta Raúl</t>
+          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1100</v>
+        <v>90</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">

--- a/data/Chile Chico.xlsx
+++ b/data/Chile Chico.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>25/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Explotación Veta Raúl</t>
+          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Compañía Minera CDE Fachinal Ltda.</t>
+          <t>Ilustre Municipalidad de Chile chico</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1100</v>
+        <v>90</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Construcción Feria Agrícola Artesanal Chile Chico</t>
+          <t>Explotación Veta Raúl</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chile chico</t>
+          <t>Compañía Minera CDE Fachinal Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>90</v>
+        <v>1100</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
